--- a/biology/Botanique/Dakapo/Dakapo.xlsx
+++ b/biology/Botanique/Dakapo/Dakapo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le dakapo N[1] est un cépage de cuve allemand de raisins noirs.
+Le dakapo N est un cépage de cuve allemand de raisins noirs.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage est une obtention de Helmut Becker à l'institut Institut für Rebenzüchtung und Rebenveredlung der Hessischen Forschungsanstalt für Weinbau, Gartenbau, Getränketechnologie und Landespflege à Geisenheim. L'origine génétique est vérifiée et c'est un croisement des cépages Deckrot x  Portugais bleu réalisé en 1972. Le cépage est autorisé dans de nombreux Länder en Allemagne mais où il ne couvre que quelques hectares.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau aranéeux, blanc.
 Jeunes feuilles aranéeux, vertes ou légèrement bronzées.
@@ -575,7 +591,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de première époque hâtive : 5 - 8 jours avant le chasselas.
 </t>
@@ -606,7 +624,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes et les baies sont de taille grande. La grappe est cylindrique, ailée et compacte. Le cépage est fertile. Il est sensible à la pourriture grise.
 Il donne un vin léger mais bien coloré. Étant teinturier, il rehausse la couleur des vins pâles.
@@ -638,7 +658,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dakapo est connu sous le nom de 7225-8
 </t>
